--- a/data/output/FV2410_FV2404/INVOIC/31010.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31010.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="263">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="263">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -891,6 +891,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
+  <autoFilter ref="A1:U158"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1180,7 +1210,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8313,5 +8346,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31010.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31010.xlsx
@@ -1761,7 +1761,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3109,7 +3109,7 @@
         <v>252</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5303,7 +5303,7 @@
         <v>257</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N116" s="2"/>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7503,7 +7503,7 @@
         <v>262</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8557,7 +8557,7 @@
         <v>262</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -8711,7 +8711,7 @@
         <v>263</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2"/>
